--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Node Size</t>
   </si>
@@ -33,17 +33,29 @@
     <t>DRL Avg Reward</t>
   </si>
   <si>
-    <t>Heuristic Avg Reward</t>
+    <t>2Opt Avg Reward</t>
   </si>
   <si>
-    <t>Regret2 Avg Reward</t>
+    <t>Greedy Heuristic Avg Reward</t>
+  </si>
+  <si>
+    <t>MIP Error</t>
+  </si>
+  <si>
+    <t>DRL Error</t>
+  </si>
+  <si>
+    <t>Greedy Error</t>
+  </si>
+  <si>
+    <t>2Opt Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +65,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,17 +111,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -115,6 +140,2528 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Reward</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Performance per Node Size </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2304.8465902299999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1403.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1022.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1112.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FB1-4569-84ED-6E448208DA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4162.2426601591997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3035.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2748.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1426.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1574.2666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FB1-4569-84ED-6E448208DA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4171.7155534059002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2969.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2616.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1134.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1154.8499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FB1-4569-84ED-6E448208DA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4481.6106945229603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2850.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2536.4444444444439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>999.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FB1-4569-84ED-6E448208DA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512344400"/>
+        <c:axId val="512343088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512344400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Solution Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512343088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512343088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Average Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512344400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Model Error % per Node Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.37132475274399729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39119592343021181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55649976691160385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51719129389476892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EEE-40F6-8359-46CE2E1D6E24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.27072968881542803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33968890706269422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65734818547425833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62177441461174832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5EEE-40F6-8359-46CE2E1D6E24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.28826643092290732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37288988990054089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72794166201638644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72317144224822583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5EEE-40F6-8359-46CE2E1D6E24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.36387156441676188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43403284726532171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77696411666868426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77139469047320863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EEE-40F6-8359-46CE2E1D6E24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512344400"/>
+        <c:axId val="512343088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512344400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Solution Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512343088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512343088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Average Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512344400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,15 +2951,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="10" width="13.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,93 +2980,170 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2304.8465902299999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1449</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1403.2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1022.2</v>
       </c>
-      <c r="F2">
-        <v>324.8</v>
+      <c r="F2" s="2">
+        <v>1112.8</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(B2-C2)/B2</f>
+        <v>0.37132475274399729</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(B2-D2)/B2</f>
+        <v>0.39119592343021181</v>
+      </c>
+      <c r="I2" s="3">
+        <f>(B2-E2)/B2</f>
+        <v>0.55649976691160385</v>
+      </c>
+      <c r="J2" s="3">
+        <f>(B2-F2)/B2</f>
+        <v>0.51719129389476892</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>4162.2426601591997</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>3035.4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2748.375</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1426.2</v>
       </c>
-      <c r="F3">
-        <v>995</v>
+      <c r="F3" s="2">
+        <v>1574.2666666666671</v>
+      </c>
+      <c r="G3" s="3">
+        <f>(B3-C3)/B3</f>
+        <v>0.27072968881542803</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(B3-D3)/B3</f>
+        <v>0.33968890706269422</v>
+      </c>
+      <c r="I3" s="3">
+        <f>(B3-E3)/B3</f>
+        <v>0.65734818547425833</v>
+      </c>
+      <c r="J3" s="3">
+        <f>(B3-F3)/B3</f>
+        <v>0.62177441461174832</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>4171.7155534059002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2969.15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2616.125</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1134.95</v>
       </c>
-      <c r="F4">
-        <v>667.45</v>
+      <c r="F4" s="2">
+        <v>1154.8499999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <f>(B4-C4)/B4</f>
+        <v>0.28826643092290732</v>
+      </c>
+      <c r="H4" s="3">
+        <f>(B4-D4)/B4</f>
+        <v>0.37288988990054089</v>
+      </c>
+      <c r="I4" s="3">
+        <f>(B4-E4)/B4</f>
+        <v>0.72794166201638644</v>
+      </c>
+      <c r="J4" s="3">
+        <f>(B4-F4)/B4</f>
+        <v>0.72317144224822583</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4481.6106945229603</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>2850.88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2536.4444444444439</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>999.56</v>
       </c>
-      <c r="F5">
-        <v>571</v>
+      <c r="F5" s="2">
+        <v>1024.52</v>
+      </c>
+      <c r="G5" s="3">
+        <f>(B5-C5)/B5</f>
+        <v>0.36387156441676188</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(B5-D5)/B5</f>
+        <v>0.43403284726532171</v>
+      </c>
+      <c r="I5" s="3">
+        <f>(B5-E5)/B5</f>
+        <v>0.77696411666868426</v>
+      </c>
+      <c r="J5" s="3">
+        <f>(B5-F5)/B5</f>
+        <v>0.77139469047320863</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -529,6 +529,160 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8FB1-4569-84ED-6E448208DA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6824.4742492383339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5299.8666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4593.3636363636397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2467.0666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2503.3000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4DD-4845-806E-536CE1650C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8418.9840838311011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7162.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3811.4749999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3883.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4DD-4845-806E-536CE1650C27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -969,16 +1123,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.37132475274399729</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39119592343021181</c:v>
+                  <c:v>3.1608005521048969E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55649976691160385</c:v>
+                  <c:v>0.29454796411318146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51719129389476892</c:v>
+                  <c:v>0.23202208419599726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,16 +1194,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.27072968881542803</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33968890706269422</c:v>
+                  <c:v>9.4559201423206188E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65734818547425833</c:v>
+                  <c:v>0.53014429729195489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62177441461174832</c:v>
+                  <c:v>0.48136434517142151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,16 +1265,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.28826643092290732</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37288988990054089</c:v>
+                  <c:v>0.11889766431470289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72794166201638644</c:v>
+                  <c:v>0.61775255544516106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72317144224822583</c:v>
+                  <c:v>0.61105030059107834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,16 +1336,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.36387156441676188</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43403284726532171</c:v>
+                  <c:v>0.11029420935134282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77696411666868426</c:v>
+                  <c:v>0.64938545291278482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77139469047320863</c:v>
+                  <c:v>0.64063026153328095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,6 +1353,148 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5EEE-40F6-8359-46CE2E1D6E24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13330581215307816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53450401267956416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52766736270094838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA4A-43BB-BF2F-E8136775EBAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12462566228979494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46786803766762303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45778447920811433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA4A-43BB-BF2F-E8136775EBAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2602,15 +2898,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2632,15 +2928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2951,10 +3247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3018,20 +3314,20 @@
         <v>1112.8</v>
       </c>
       <c r="G2" s="3">
-        <f>(B2-C2)/B2</f>
-        <v>0.37132475274399729</v>
+        <f>(C2-C2)/C2</f>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <f>(B2-D2)/B2</f>
-        <v>0.39119592343021181</v>
+        <f>(C2-D2)/C2</f>
+        <v>3.1608005521048969E-2</v>
       </c>
       <c r="I2" s="3">
-        <f>(B2-E2)/B2</f>
-        <v>0.55649976691160385</v>
+        <f>(C2-E2)/C2</f>
+        <v>0.29454796411318146</v>
       </c>
       <c r="J2" s="3">
-        <f>(B2-F2)/B2</f>
-        <v>0.51719129389476892</v>
+        <f>(C2-F2)/C2</f>
+        <v>0.23202208419599726</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3054,20 +3350,20 @@
         <v>1574.2666666666671</v>
       </c>
       <c r="G3" s="3">
-        <f>(B3-C3)/B3</f>
-        <v>0.27072968881542803</v>
+        <f t="shared" ref="G3:G6" si="0">(C3-C3)/C3</f>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f>(B3-D3)/B3</f>
-        <v>0.33968890706269422</v>
+        <f t="shared" ref="H3:H7" si="1">(C3-D3)/C3</f>
+        <v>9.4559201423206188E-2</v>
       </c>
       <c r="I3" s="3">
-        <f>(B3-E3)/B3</f>
-        <v>0.65734818547425833</v>
+        <f t="shared" ref="I3:I7" si="2">(C3-E3)/C3</f>
+        <v>0.53014429729195489</v>
       </c>
       <c r="J3" s="3">
-        <f>(B3-F3)/B3</f>
-        <v>0.62177441461174832</v>
+        <f t="shared" ref="J3:J7" si="3">(C3-F3)/C3</f>
+        <v>0.48136434517142151</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3090,20 +3386,20 @@
         <v>1154.8499999999999</v>
       </c>
       <c r="G4" s="3">
-        <f>(B4-C4)/B4</f>
-        <v>0.28826643092290732</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <f>(B4-D4)/B4</f>
-        <v>0.37288988990054089</v>
+        <f t="shared" si="1"/>
+        <v>0.11889766431470289</v>
       </c>
       <c r="I4" s="3">
-        <f>(B4-E4)/B4</f>
-        <v>0.72794166201638644</v>
+        <f t="shared" si="2"/>
+        <v>0.61775255544516106</v>
       </c>
       <c r="J4" s="3">
-        <f>(B4-F4)/B4</f>
-        <v>0.72317144224822583</v>
+        <f t="shared" si="3"/>
+        <v>0.61105030059107834</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3126,20 +3422,92 @@
         <v>1024.52</v>
       </c>
       <c r="G5" s="3">
-        <f>(B5-C5)/B5</f>
-        <v>0.36387156441676188</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f>(B5-D5)/B5</f>
-        <v>0.43403284726532171</v>
+        <f t="shared" si="1"/>
+        <v>0.11029420935134282</v>
       </c>
       <c r="I5" s="3">
-        <f>(B5-E5)/B5</f>
-        <v>0.77696411666868426</v>
+        <f t="shared" si="2"/>
+        <v>0.64938545291278482</v>
       </c>
       <c r="J5" s="3">
-        <f>(B5-F5)/B5</f>
-        <v>0.77139469047320863</v>
+        <f t="shared" si="3"/>
+        <v>0.64063026153328095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6824.4742492383339</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5299.8666666666668</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4593.3636363636397</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2467.0666666666671</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2503.3000000000002</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13330581215307816</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.53450401267956416</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52766736270094838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8418.9840838311011</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7162.65</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6270</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3811.4749999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3883.7</v>
+      </c>
+      <c r="G7" s="3">
+        <f>(C7-C7)/C7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12462566228979494</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.46786803766762303</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.45778447920811433</v>
       </c>
     </row>
   </sheetData>

--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -669,7 +669,7 @@
                   <c:v>7162.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6270</c:v>
+                  <c:v>6270.3253999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3811.4749999999999</c:v>
@@ -1481,7 +1481,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12462566228979494</c:v>
+                  <c:v>0.12458023217663854</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.46786803766762303</c:v>
@@ -3250,7 +3250,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3485,7 +3485,7 @@
         <v>7162.65</v>
       </c>
       <c r="D7" s="2">
-        <v>6270</v>
+        <v>6270.3253999999997</v>
       </c>
       <c r="E7" s="2">
         <v>3811.4749999999999</v>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>0.12462566228979494</v>
+        <v>0.12458023217663854</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="2"/>

--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -683,6 +683,85 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D4DD-4845-806E-536CE1650C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8868.857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7481.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6429.2142857142899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4199.1555555555551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4212.0888888888894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3858-464F-BC83-89497A1DFDE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,6 +1577,79 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14064021630787149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43872061972952187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43699188803046363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB29-4531-96F1-166C8571396F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3247,10 +3399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3498,16 +3650,52 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f>(C7-D7)/C7</f>
         <v>0.12458023217663854</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="2"/>
+        <f>(C7-E7)/C7</f>
         <v>0.46786803766762303</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="3"/>
+        <f>(C7-F7)/C7</f>
         <v>0.45778447920811433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8868.857</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7481.4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6429.2142857142899</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4199.1555555555551</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4212.0888888888894</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(C8-C8)/C8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(C8-D8)/C8</f>
+        <v>0.14064021630787149</v>
+      </c>
+      <c r="I8" s="3">
+        <f>(C8-E8)/C8</f>
+        <v>0.43872061972952187</v>
+      </c>
+      <c r="J8" s="3">
+        <f>(C8-F8)/C8</f>
+        <v>0.43699188803046363</v>
       </c>
     </row>
   </sheetData>

--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -3401,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="145" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3506,15 +3506,15 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H7" si="1">(C3-D3)/C3</f>
+        <f t="shared" ref="H3:H6" si="1">(C3-D3)/C3</f>
         <v>9.4559201423206188E-2</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I7" si="2">(C3-E3)/C3</f>
+        <f t="shared" ref="I3:I6" si="2">(C3-E3)/C3</f>
         <v>0.53014429729195489</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J7" si="3">(C3-F3)/C3</f>
+        <f t="shared" ref="J3:J6" si="3">(C3-F3)/C3</f>
         <v>0.48136434517142151</v>
       </c>
     </row>

--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nuevos Resultados" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Node Size</t>
   </si>
@@ -187,6 +188,929 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2304.8465902299999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1403.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1022.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1112.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FB1-4569-84ED-6E448208DA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4162.2426601591997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3035.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2748.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1426.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1574.2666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FB1-4569-84ED-6E448208DA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4171.7155534059002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2969.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2616.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1134.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1154.8499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FB1-4569-84ED-6E448208DA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4481.6106945229603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2850.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2536.4444444444439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>999.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FB1-4569-84ED-6E448208DA8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6824.4742492383339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5299.8666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4593.3636363636397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2467.0666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2503.3000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4DD-4845-806E-536CE1650C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8418.9840838311011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7162.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6270.3253999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3811.4749999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3883.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4DD-4845-806E-536CE1650C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8868.857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7481.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6429.2142857142899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4199.1555555555551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4212.0888888888894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3858-464F-BC83-89497A1DFDE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512344400"/>
+        <c:axId val="512343088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512344400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Solution Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512343088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512343088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Average Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512344400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Model Error % per Node Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -250,54 +1174,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2Opt Avg Reward</c:v>
+                  <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:f>Sheet1!$G$2:$J$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2304.8465902299999</c:v>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1449</c:v>
+                  <c:v>3.1608005521048969E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1403.2</c:v>
+                  <c:v>0.29454796411318146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1022.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1112.8</c:v>
+                  <c:v>0.23202208419599726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FB1-4569-84ED-6E448208DA8A}"/>
+              <c16:uniqueId val="{00000000-5EEE-40F6-8359-46CE2E1D6E24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -327,54 +1245,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2Opt Avg Reward</c:v>
+                  <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:f>Sheet1!$G$3:$J$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4162.2426601591997</c:v>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3035.4</c:v>
+                  <c:v>9.4559201423206188E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2748.375</c:v>
+                  <c:v>0.53014429729195489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1426.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1574.2666666666671</c:v>
+                  <c:v>0.48136434517142151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8FB1-4569-84ED-6E448208DA8A}"/>
+              <c16:uniqueId val="{00000001-5EEE-40F6-8359-46CE2E1D6E24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -404,54 +1316,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2Opt Avg Reward</c:v>
+                  <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:f>Sheet1!$G$4:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4171.7155534059002</c:v>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2969.15</c:v>
+                  <c:v>0.11889766431470289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2616.125</c:v>
+                  <c:v>0.61775255544516106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1134.95</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1154.8499999999999</c:v>
+                  <c:v>0.61105030059107834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8FB1-4569-84ED-6E448208DA8A}"/>
+              <c16:uniqueId val="{00000002-5EEE-40F6-8359-46CE2E1D6E24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -481,54 +1387,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2Opt Avg Reward</c:v>
+                  <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:f>Sheet1!$G$5:$J$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4481.6106945229603</c:v>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2850.88</c:v>
+                  <c:v>0.11029420935134282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2536.4444444444439</c:v>
+                  <c:v>0.64938545291278482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>999.56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024.52</c:v>
+                  <c:v>0.64063026153328095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8FB1-4569-84ED-6E448208DA8A}"/>
+              <c16:uniqueId val="{00000003-5EEE-40F6-8359-46CE2E1D6E24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -558,54 +1458,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2Opt Avg Reward</c:v>
+                  <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:f>Sheet1!$G$6:$J$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6824.4742492383339</c:v>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5299.8666666666668</c:v>
+                  <c:v>0.13330581215307816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4593.3636363636397</c:v>
+                  <c:v>0.53450401267956416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2467.0666666666671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2503.3000000000002</c:v>
+                  <c:v>0.52766736270094838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4DD-4845-806E-536CE1650C27}"/>
+              <c16:uniqueId val="{00000000-FA4A-43BB-BF2F-E8136775EBAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -635,54 +1529,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2Opt Avg Reward</c:v>
+                  <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:f>Sheet1!$G$7:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8418.9840838311011</c:v>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7162.65</c:v>
+                  <c:v>0.12458023217663854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6270.3253999999997</c:v>
+                  <c:v>0.46786803766762303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3811.4749999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3883.7</c:v>
+                  <c:v>0.45778447920811433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D4DD-4845-806E-536CE1650C27}"/>
+              <c16:uniqueId val="{00000001-FA4A-43BB-BF2F-E8136775EBAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -714,54 +1602,980 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2Opt Avg Reward</c:v>
+                  <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:f>Sheet1!$G$8:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8868.857</c:v>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7481.4</c:v>
+                  <c:v>0.14064021630787149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6429.2142857142899</c:v>
+                  <c:v>0.43872061972952187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4199.1555555555551</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4212.0888888888894</c:v>
+                  <c:v>0.43699188803046363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3858-464F-BC83-89497A1DFDE1}"/>
+              <c16:uniqueId val="{00000000-DB29-4531-96F1-166C8571396F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512344400"/>
+        <c:axId val="512343088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512344400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Solution Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512343088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512343088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Average Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512344400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Reward</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Performance per Node Size </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nuevos Resultados'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2304.8465902299999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>446.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>422.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1022.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1112.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B58-446E-99EA-B2D0BB0035D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nuevos Resultados'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4162.2426601591997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017.133333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1953.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1426.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1574.2666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B58-446E-99EA-B2D0BB0035D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nuevos Resultados'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4171.7155534059002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2206.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2144.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1134.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1154.8499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B58-446E-99EA-B2D0BB0035D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nuevos Resultados'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4481.6106945229603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2130.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1958.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>999.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3B58-446E-99EA-B2D0BB0035D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nuevos Resultados'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6824.4742492383339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5299.8666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4593.3636363636397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2467.0666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2503.3000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3B58-446E-99EA-B2D0BB0035D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nuevos Resultados'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8418.9840838311011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7162.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6270.3253999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3811.4749999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3883.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3B58-446E-99EA-B2D0BB0035D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LP Upper Bound</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nuevos Resultados'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8868.857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7481.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6429.2142857142899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4199.1555555555551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4212.0888888888894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3B58-446E-99EA-B2D0BB0035D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1074,7 +2888,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1156,7 +2970,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Nuevos Resultados'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1177,7 +2991,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1197,7 +3011,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$J$2</c:f>
+              <c:f>'Nuevos Resultados'!$G$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1205,20 +3019,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1608005521048969E-2</c:v>
+                  <c:v>5.2958314657104426E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29454796411318146</c:v>
+                  <c:v>-1.2909009412819363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23202208419599726</c:v>
+                  <c:v>-1.4939489018377408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5EEE-40F6-8359-46CE2E1D6E24}"/>
+              <c16:uniqueId val="{00000000-673D-4567-8F34-FB60D83321AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1227,7 +3041,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>'Nuevos Resultados'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1248,7 +3062,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1268,7 +3082,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$J$3</c:f>
+              <c:f>'Nuevos Resultados'!$G$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1276,20 +3090,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4559201423206188E-2</c:v>
+                  <c:v>3.1630697028786597E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53014429729195489</c:v>
+                  <c:v>0.29295700168556021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48136434517142151</c:v>
+                  <c:v>0.21955250024787618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5EEE-40F6-8359-46CE2E1D6E24}"/>
+              <c16:uniqueId val="{00000001-673D-4567-8F34-FB60D83321AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1298,7 +3112,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>'Nuevos Resultados'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1319,7 +3133,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1339,7 +3153,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$J$4</c:f>
+              <c:f>'Nuevos Resultados'!$G$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1347,20 +3161,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11889766431470289</c:v>
+                  <c:v>2.8098799002945842E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61775255544516106</c:v>
+                  <c:v>0.48563335599365509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61105030059107834</c:v>
+                  <c:v>0.47661454792658059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5EEE-40F6-8359-46CE2E1D6E24}"/>
+              <c16:uniqueId val="{00000002-673D-4567-8F34-FB60D83321AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1369,7 +3183,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>'Nuevos Resultados'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1390,7 +3204,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1410,7 +3224,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$J$5</c:f>
+              <c:f>'Nuevos Resultados'!$G$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1418,20 +3232,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11029420935134282</c:v>
+                  <c:v>8.0883319252792615E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64938545291278482</c:v>
+                  <c:v>0.53085515817140716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64063026153328095</c:v>
+                  <c:v>0.51914014831502864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5EEE-40F6-8359-46CE2E1D6E24}"/>
+              <c16:uniqueId val="{00000003-673D-4567-8F34-FB60D83321AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1440,7 +3254,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>'Nuevos Resultados'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1461,7 +3275,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1481,7 +3295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$6:$J$6</c:f>
+              <c:f>'Nuevos Resultados'!$G$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1502,7 +3316,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA4A-43BB-BF2F-E8136775EBAB}"/>
+              <c16:uniqueId val="{00000004-673D-4567-8F34-FB60D83321AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1511,7 +3325,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>'Nuevos Resultados'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1532,7 +3346,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1552,7 +3366,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$7:$J$7</c:f>
+              <c:f>'Nuevos Resultados'!$G$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1573,7 +3387,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FA4A-43BB-BF2F-E8136775EBAB}"/>
+              <c16:uniqueId val="{00000005-673D-4567-8F34-FB60D83321AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1582,7 +3396,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>'Nuevos Resultados'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1605,7 +3419,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1625,7 +3439,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$8:$J$8</c:f>
+              <c:f>'Nuevos Resultados'!$G$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1646,7 +3460,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB29-4531-96F1-166C8571396F}"/>
+              <c16:uniqueId val="{00000006-673D-4567-8F34-FB60D83321AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2039,6 +3853,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2543,6 +4437,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3064,6 +5964,75 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3401,7 +6370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="145" workbookViewId="0">
+    <sheetView topLeftCell="G11" zoomScale="145" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -3702,4 +6671,311 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="10" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2304.8465902299999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>446.2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>422.57</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1022.2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1112.8</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(C2-C2)/C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(C2-D2)/C2</f>
+        <v>5.2958314657104426E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <f>(C2-E2)/C2</f>
+        <v>-1.2909009412819363</v>
+      </c>
+      <c r="J2" s="3">
+        <f>(C2-F2)/C2</f>
+        <v>-1.4939489018377408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4162.2426601591997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2017.133333333333</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1953.33</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1426.2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1574.2666666666671</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G6" si="0">(C3-C3)/C3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H6" si="1">(C3-D3)/C3</f>
+        <v>3.1630697028786597E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I6" si="2">(C3-E3)/C3</f>
+        <v>0.29295700168556021</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J6" si="3">(C3-F3)/C3</f>
+        <v>0.21955250024787618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4171.7155534059002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2206.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2144.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1134.95</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1154.8499999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8098799002945842E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.48563335599365509</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47661454792658059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4481.6106945229603</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2130.6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1958.27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>999.56</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1024.52</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0883319252792615E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.53085515817140716</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.51914014831502864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6824.4742492383339</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5299.8666666666668</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4593.3636363636397</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2467.0666666666671</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2503.3000000000002</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13330581215307816</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.53450401267956416</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52766736270094838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8418.9840838311011</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7162.65</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6270.3253999999997</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3811.4749999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3883.7</v>
+      </c>
+      <c r="G7" s="3">
+        <f>(C7-C7)/C7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f>(C7-D7)/C7</f>
+        <v>0.12458023217663854</v>
+      </c>
+      <c r="I7" s="3">
+        <f>(C7-E7)/C7</f>
+        <v>0.46786803766762303</v>
+      </c>
+      <c r="J7" s="3">
+        <f>(C7-F7)/C7</f>
+        <v>0.45778447920811433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8868.857</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7481.4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6429.2142857142899</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4199.1555555555551</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4212.0888888888894</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(C8-C8)/C8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(C8-D8)/C8</f>
+        <v>0.14064021630787149</v>
+      </c>
+      <c r="I8" s="3">
+        <f>(C8-E8)/C8</f>
+        <v>0.43872061972952187</v>
+      </c>
+      <c r="J8" s="3">
+        <f>(C8-F8)/C8</f>
+        <v>0.43699188803046363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1111,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1693,7 +1692,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1814,7 +1812,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1889,7 +1886,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2101,10 +2097,10 @@
                   <c:v>422.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1022.2</c:v>
+                  <c:v>402.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1112.8</c:v>
+                  <c:v>402.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,10 +2174,10 @@
                   <c:v>1953.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1426.2</c:v>
+                  <c:v>1542.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1574.2666666666671</c:v>
+                  <c:v>1450.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,16 +2245,16 @@
                   <c:v>4171.7155534059002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2206.5</c:v>
+                  <c:v>2130.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2144.5</c:v>
+                  <c:v>1958.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1134.95</c:v>
+                  <c:v>1204.545454545455</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1154.8499999999999</c:v>
+                  <c:v>1228.909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,16 +2322,16 @@
                   <c:v>4481.6106945229603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2130.6</c:v>
+                  <c:v>2206.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1958.27</c:v>
+                  <c:v>2144.5172299999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>999.56</c:v>
+                  <c:v>1655.6777777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1024.52</c:v>
+                  <c:v>1661.9511500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2403,16 +2399,16 @@
                   <c:v>6824.4742492383339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5299.8666666666668</c:v>
+                  <c:v>4242.9333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4593.3636363636397</c:v>
+                  <c:v>3900.1785714285702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2467.0666666666671</c:v>
+                  <c:v>2023.1111111111111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2503.3000000000002</c:v>
+                  <c:v>2079.5613211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,16 +2476,16 @@
                   <c:v>8418.9840838311011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7162.65</c:v>
+                  <c:v>4521.3249999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6270.3253999999997</c:v>
+                  <c:v>4209.0540540540496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3811.4749999999999</c:v>
+                  <c:v>3749.3666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3883.7</c:v>
+                  <c:v>3832.3666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2505,11 +2501,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$A$8</c:f>
+              <c:f>'Nuevos Resultados'!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2551,24 +2547,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$B$8:$F$8</c:f>
+              <c:f>'Nuevos Resultados'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8868.857</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7481.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6429.2142857142899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4199.1555555555551</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4212.0888888888894</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,6 +2805,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3022,10 +3010,10 @@
                   <c:v>5.2958314657104426E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.2909009412819363</c:v>
+                  <c:v>9.8610488570147925E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.4939489018377408</c:v>
+                  <c:v>9.7265800089645846E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3093,10 +3081,10 @@
                   <c:v>3.1630697028786597E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29295700168556021</c:v>
+                  <c:v>0.23544964801533513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21955250024787618</c:v>
+                  <c:v>0.28086062729285777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3161,13 +3149,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8098799002945842E-2</c:v>
+                  <c:v>8.0883319252792615E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48563335599365509</c:v>
+                  <c:v>0.43464495703301653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47661454792658059</c:v>
+                  <c:v>0.42320985125828825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3232,13 +3220,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0883319252792615E-2</c:v>
+                  <c:v>2.8090990256061668E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53085515817140716</c:v>
+                  <c:v>0.24963617598005894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51914014831502864</c:v>
+                  <c:v>0.24679304328121454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,13 +3291,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13330581215307816</c:v>
+                  <c:v>8.0782499977554018E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53450401267956416</c:v>
+                  <c:v>0.52318102780047337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52766736270094838</c:v>
+                  <c:v>0.50987650341744706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,13 +3362,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12458023217663854</c:v>
+                  <c:v>6.9066246276467666E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46786803766762303</c:v>
+                  <c:v>0.17073719171555529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45778447920811433</c:v>
+                  <c:v>0.1523797411894374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3388,79 +3376,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-673D-4567-8F34-FB60D83321AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Nuevos Resultados'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MIP Error</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DRL Error</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Greedy Error</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2Opt Error</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Nuevos Resultados'!$G$8:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14064021630787149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43872061972952187</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.43699188803046363</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-673D-4567-8F34-FB60D83321AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6018,13 +5933,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1249680</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6050,13 +5965,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6675,10 +6590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6736,10 +6651,10 @@
         <v>422.57</v>
       </c>
       <c r="E2" s="2">
-        <v>1022.2</v>
+        <v>402.2</v>
       </c>
       <c r="F2" s="2">
-        <v>1112.8</v>
+        <v>402.8</v>
       </c>
       <c r="G2" s="3">
         <f>(C2-C2)/C2</f>
@@ -6751,11 +6666,11 @@
       </c>
       <c r="I2" s="3">
         <f>(C2-E2)/C2</f>
-        <v>-1.2909009412819363</v>
+        <v>9.8610488570147925E-2</v>
       </c>
       <c r="J2" s="3">
         <f>(C2-F2)/C2</f>
-        <v>-1.4939489018377408</v>
+        <v>9.7265800089645846E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -6772,10 +6687,10 @@
         <v>1953.33</v>
       </c>
       <c r="E3" s="2">
-        <v>1426.2</v>
+        <v>1542.2</v>
       </c>
       <c r="F3" s="2">
-        <v>1574.2666666666671</v>
+        <v>1450.6</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G6" si="0">(C3-C3)/C3</f>
@@ -6787,11 +6702,11 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I6" si="2">(C3-E3)/C3</f>
-        <v>0.29295700168556021</v>
+        <v>0.23544964801533513</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J6" si="3">(C3-F3)/C3</f>
-        <v>0.21955250024787618</v>
+        <v>0.28086062729285777</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -6802,16 +6717,16 @@
         <v>4171.7155534059002</v>
       </c>
       <c r="C4" s="2">
-        <v>2206.5</v>
+        <v>2130.6</v>
       </c>
       <c r="D4" s="2">
-        <v>2144.5</v>
+        <v>1958.27</v>
       </c>
       <c r="E4" s="2">
-        <v>1134.95</v>
+        <v>1204.545454545455</v>
       </c>
       <c r="F4" s="2">
-        <v>1154.8499999999999</v>
+        <v>1228.909090909091</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
@@ -6819,15 +6734,15 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>2.8098799002945842E-2</v>
+        <v>8.0883319252792615E-2</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="2"/>
-        <v>0.48563335599365509</v>
+        <v>0.43464495703301653</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="3"/>
-        <v>0.47661454792658059</v>
+        <v>0.42320985125828825</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -6838,32 +6753,32 @@
         <v>4481.6106945229603</v>
       </c>
       <c r="C5" s="2">
-        <v>2130.6</v>
+        <v>2206.5</v>
       </c>
       <c r="D5" s="2">
-        <v>1958.27</v>
+        <v>2144.5172299999999</v>
       </c>
       <c r="E5" s="2">
-        <v>999.56</v>
+        <v>1655.6777777</v>
       </c>
       <c r="F5" s="2">
-        <v>1024.52</v>
+        <v>1661.9511500000001</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
+        <f>(C5-C5)/C5</f>
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0883319252792615E-2</v>
+        <f>(C5-D5)/C5</f>
+        <v>2.8090990256061668E-2</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.53085515817140716</v>
+        <f>(C5-E5)/C5</f>
+        <v>0.24963617598005894</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="3"/>
-        <v>0.51914014831502864</v>
+        <f>(C5-F5)/C5</f>
+        <v>0.24679304328121454</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -6874,16 +6789,16 @@
         <v>6824.4742492383339</v>
       </c>
       <c r="C6" s="2">
-        <v>5299.8666666666668</v>
+        <v>4242.9333333333334</v>
       </c>
       <c r="D6" s="2">
-        <v>4593.3636363636397</v>
+        <v>3900.1785714285702</v>
       </c>
       <c r="E6" s="2">
-        <v>2467.0666666666671</v>
+        <v>2023.1111111111111</v>
       </c>
       <c r="F6" s="2">
-        <v>2503.3000000000002</v>
+        <v>2079.5613211</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
@@ -6891,15 +6806,15 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>0.13330581215307816</v>
+        <v>8.0782499977554018E-2</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="2"/>
-        <v>0.53450401267956416</v>
+        <v>0.52318102780047337</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="3"/>
-        <v>0.52766736270094838</v>
+        <v>0.50987650341744706</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6910,16 +6825,16 @@
         <v>8418.9840838311011</v>
       </c>
       <c r="C7" s="2">
-        <v>7162.65</v>
+        <v>4521.3249999999998</v>
       </c>
       <c r="D7" s="2">
-        <v>6270.3253999999997</v>
+        <v>4209.0540540540496</v>
       </c>
       <c r="E7" s="2">
-        <v>3811.4749999999999</v>
+        <v>3749.3666666666668</v>
       </c>
       <c r="F7" s="2">
-        <v>3883.7</v>
+        <v>3832.3666666666668</v>
       </c>
       <c r="G7" s="3">
         <f>(C7-C7)/C7</f>
@@ -6927,51 +6842,15 @@
       </c>
       <c r="H7" s="3">
         <f>(C7-D7)/C7</f>
-        <v>0.12458023217663854</v>
+        <v>6.9066246276467666E-2</v>
       </c>
       <c r="I7" s="3">
         <f>(C7-E7)/C7</f>
-        <v>0.46786803766762303</v>
+        <v>0.17073719171555529</v>
       </c>
       <c r="J7" s="3">
         <f>(C7-F7)/C7</f>
-        <v>0.45778447920811433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2">
-        <v>8868.857</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7481.4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6429.2142857142899</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4199.1555555555551</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4212.0888888888894</v>
-      </c>
-      <c r="G8" s="3">
-        <f>(C8-C8)/C8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <f>(C8-D8)/C8</f>
-        <v>0.14064021630787149</v>
-      </c>
-      <c r="I8" s="3">
-        <f>(C8-E8)/C8</f>
-        <v>0.43872061972952187</v>
-      </c>
-      <c r="J8" s="3">
-        <f>(C8-F8)/C8</f>
-        <v>0.43699188803046363</v>
+        <v>0.1523797411894374</v>
       </c>
     </row>
   </sheetData>

--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Node Size</t>
   </si>
@@ -188,6 +188,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -811,6 +812,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -931,6 +933,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1005,6 +1008,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1111,6 +1115,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1692,6 +1697,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1812,6 +1818,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1886,6 +1893,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2060,22 +2068,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:f>'Nuevos Resultados'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2Opt Avg Reward</c:v>
                 </c:pt>
               </c:strCache>
@@ -2083,23 +2088,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$B$2:$F$2</c:f>
+              <c:f>'Nuevos Resultados'!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2304.8465902299999</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>446.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>446.2</c:v>
+                  <c:v>422.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>422.57</c:v>
+                  <c:v>402.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>402.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>402.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -2137,22 +2139,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:f>'Nuevos Resultados'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2Opt Avg Reward</c:v>
                 </c:pt>
               </c:strCache>
@@ -2160,23 +2159,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$B$3:$F$3</c:f>
+              <c:f>'Nuevos Resultados'!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4162.2426601591997</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2017.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017.133333333333</c:v>
+                  <c:v>1953.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1953.33</c:v>
+                  <c:v>1542.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1542.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>1450.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -2214,22 +2210,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:f>'Nuevos Resultados'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2Opt Avg Reward</c:v>
                 </c:pt>
               </c:strCache>
@@ -2237,23 +2230,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$B$4:$F$4</c:f>
+              <c:f>'Nuevos Resultados'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4171.7155534059002</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2130.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2130.6</c:v>
+                  <c:v>1958.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1958.27</c:v>
+                  <c:v>1204.545454545455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1204.545454545455</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>1228.909090909091</c:v>
                 </c:pt>
               </c:numCache>
@@ -2291,22 +2281,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:f>'Nuevos Resultados'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2Opt Avg Reward</c:v>
                 </c:pt>
               </c:strCache>
@@ -2314,23 +2301,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$B$5:$F$5</c:f>
+              <c:f>'Nuevos Resultados'!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4481.6106945229603</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2206.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2206.5</c:v>
+                  <c:v>2144.5172299999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2144.5172299999999</c:v>
+                  <c:v>1655.6777777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1655.6777777</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>1661.9511500000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2368,22 +2352,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:f>'Nuevos Resultados'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2Opt Avg Reward</c:v>
                 </c:pt>
               </c:strCache>
@@ -2391,23 +2372,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$B$6:$F$6</c:f>
+              <c:f>'Nuevos Resultados'!$B$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6824.4742492383339</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4242.9333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4242.9333333333334</c:v>
+                  <c:v>3970.1785714285702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3900.1785714285702</c:v>
+                  <c:v>2023.1111111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2023.1111111111111</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2079.5613211</c:v>
                 </c:pt>
               </c:numCache>
@@ -2445,22 +2423,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:f>'Nuevos Resultados'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2Opt Avg Reward</c:v>
                 </c:pt>
               </c:strCache>
@@ -2468,23 +2443,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$B$7:$F$7</c:f>
+              <c:f>'Nuevos Resultados'!$B$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8418.9840838311011</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4521.3249999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4521.3249999999998</c:v>
+                  <c:v>4309.0540540540496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4209.0540540540496</c:v>
+                  <c:v>3749.3666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3749.3666666666668</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>3832.3666666666668</c:v>
                 </c:pt>
               </c:numCache>
@@ -2524,22 +2496,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$B$1:$F$1</c:f>
+              <c:f>'Nuevos Resultados'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LP Upper Bound</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MIP Avg Reward</c:v>
+                  <c:v>DRL Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRL Avg Reward</c:v>
+                  <c:v>Greedy Heuristic Avg Reward</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Greedy Heuristic Avg Reward</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2Opt Avg Reward</c:v>
                 </c:pt>
               </c:strCache>
@@ -2979,19 +2948,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MIP Error</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DRL Error</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Greedy Error</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
@@ -2999,20 +2965,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$G$2:$J$2</c:f>
+              <c:f>'Nuevos Resultados'!$G$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.2958314657104426E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2958314657104426E-2</c:v>
+                  <c:v>9.8610488570147925E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8610488570147925E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>9.7265800089645846E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3050,19 +3013,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MIP Error</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DRL Error</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Greedy Error</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
@@ -3070,20 +3030,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$G$3:$J$3</c:f>
+              <c:f>'Nuevos Resultados'!$G$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1630697028786597E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1630697028786597E-2</c:v>
+                  <c:v>0.23544964801533513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23544964801533513</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.28086062729285777</c:v>
                 </c:pt>
               </c:numCache>
@@ -3121,19 +3078,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MIP Error</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DRL Error</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Greedy Error</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
@@ -3141,20 +3095,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$G$4:$J$4</c:f>
+              <c:f>'Nuevos Resultados'!$G$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.0883319252792615E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0883319252792615E-2</c:v>
+                  <c:v>0.43464495703301653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43464495703301653</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.42320985125828825</c:v>
                 </c:pt>
               </c:numCache>
@@ -3192,19 +3143,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MIP Error</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DRL Error</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Greedy Error</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
@@ -3212,20 +3160,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$G$5:$J$5</c:f>
+              <c:f>'Nuevos Resultados'!$G$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8090990256061668E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8090990256061668E-2</c:v>
+                  <c:v>0.24963617598005894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24963617598005894</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.24679304328121454</c:v>
                 </c:pt>
               </c:numCache>
@@ -3263,19 +3208,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MIP Error</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DRL Error</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Greedy Error</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
@@ -3283,20 +3225,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$G$6:$J$6</c:f>
+              <c:f>'Nuevos Resultados'!$G$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.4284479739982525E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0782499977554018E-2</c:v>
+                  <c:v>0.52318102780047337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52318102780047337</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.50987650341744706</c:v>
                 </c:pt>
               </c:numCache>
@@ -3334,19 +3273,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Nuevos Resultados'!$G$1:$J$1</c:f>
+              <c:f>'Nuevos Resultados'!$G$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MIP Error</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DRL Error</c:v>
+                  <c:v>Greedy Error</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Greedy Error</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>2Opt Error</c:v>
                 </c:pt>
               </c:strCache>
@@ -3354,20 +3290,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nuevos Resultados'!$G$7:$J$7</c:f>
+              <c:f>'Nuevos Resultados'!$G$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6948836004036473E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9066246276467666E-2</c:v>
+                  <c:v>0.17073719171555529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17073719171555529</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.1523797411894374</c:v>
                 </c:pt>
               </c:numCache>
@@ -5937,7 +5870,7 @@
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1249680</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -5963,13 +5896,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
@@ -6285,7 +6218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="G11" zoomScale="145" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -6590,266 +6523,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="10" width="13.77734375" customWidth="1"/>
+    <col min="2" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="9" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>2304.8465902299999</v>
+        <v>446.2</v>
       </c>
       <c r="C2" s="2">
-        <v>446.2</v>
+        <v>422.57</v>
       </c>
       <c r="D2" s="2">
-        <v>422.57</v>
+        <v>402.2</v>
       </c>
       <c r="E2" s="2">
-        <v>402.2</v>
-      </c>
-      <c r="F2" s="2">
         <v>402.8</v>
       </c>
+      <c r="F2" s="3">
+        <f>(B2-B2)/B2</f>
+        <v>0</v>
+      </c>
       <c r="G2" s="3">
-        <f>(C2-C2)/C2</f>
-        <v>0</v>
+        <f>(B2-C2)/B2</f>
+        <v>5.2958314657104426E-2</v>
       </c>
       <c r="H2" s="3">
-        <f>(C2-D2)/C2</f>
-        <v>5.2958314657104426E-2</v>
+        <f>(B2-D2)/B2</f>
+        <v>9.8610488570147925E-2</v>
       </c>
       <c r="I2" s="3">
-        <f>(C2-E2)/C2</f>
-        <v>9.8610488570147925E-2</v>
-      </c>
-      <c r="J2" s="3">
-        <f>(C2-F2)/C2</f>
+        <f>(B2-E2)/B2</f>
         <v>9.7265800089645846E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>4162.2426601591997</v>
+        <v>2017.133333333333</v>
       </c>
       <c r="C3" s="2">
-        <v>2017.133333333333</v>
+        <v>1953.33</v>
       </c>
       <c r="D3" s="2">
-        <v>1953.33</v>
+        <v>1542.2</v>
       </c>
       <c r="E3" s="2">
-        <v>1542.2</v>
-      </c>
-      <c r="F3" s="2">
         <v>1450.6</v>
       </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F6" si="0">(B3-B3)/B3</f>
+        <v>0</v>
+      </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G6" si="0">(C3-C3)/C3</f>
-        <v>0</v>
+        <f t="shared" ref="G3:G6" si="1">(B3-C3)/B3</f>
+        <v>3.1630697028786597E-2</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H6" si="1">(C3-D3)/C3</f>
-        <v>3.1630697028786597E-2</v>
+        <f t="shared" ref="H3:H6" si="2">(B3-D3)/B3</f>
+        <v>0.23544964801533513</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I6" si="2">(C3-E3)/C3</f>
-        <v>0.23544964801533513</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J6" si="3">(C3-F3)/C3</f>
+        <f t="shared" ref="I3:I6" si="3">(B3-E3)/B3</f>
         <v>0.28086062729285777</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>4171.7155534059002</v>
+        <v>2130.6</v>
       </c>
       <c r="C4" s="2">
-        <v>2130.6</v>
+        <v>1958.27</v>
       </c>
       <c r="D4" s="2">
-        <v>1958.27</v>
+        <v>1204.545454545455</v>
       </c>
       <c r="E4" s="2">
-        <v>1204.545454545455</v>
-      </c>
-      <c r="F4" s="2">
         <v>1228.909090909091</v>
       </c>
-      <c r="G4" s="3">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>8.0883319252792615E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="H4" s="3">
         <f t="shared" si="2"/>
         <v>0.43464495703301653</v>
       </c>
-      <c r="J4" s="3">
+      <c r="I4" s="3">
         <f t="shared" si="3"/>
         <v>0.42320985125828825</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>4481.6106945229603</v>
+        <v>2206.5</v>
       </c>
       <c r="C5" s="2">
-        <v>2206.5</v>
+        <v>2144.5172299999999</v>
       </c>
       <c r="D5" s="2">
-        <v>2144.5172299999999</v>
+        <v>1655.6777777</v>
       </c>
       <c r="E5" s="2">
-        <v>1655.6777777</v>
-      </c>
-      <c r="F5" s="2">
         <v>1661.9511500000001</v>
       </c>
+      <c r="F5" s="3">
+        <f>(B5-B5)/B5</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="3">
-        <f>(C5-C5)/C5</f>
-        <v>0</v>
+        <f>(B5-C5)/B5</f>
+        <v>2.8090990256061668E-2</v>
       </c>
       <c r="H5" s="3">
-        <f>(C5-D5)/C5</f>
-        <v>2.8090990256061668E-2</v>
+        <f>(B5-D5)/B5</f>
+        <v>0.24963617598005894</v>
       </c>
       <c r="I5" s="3">
-        <f>(C5-E5)/C5</f>
-        <v>0.24963617598005894</v>
-      </c>
-      <c r="J5" s="3">
-        <f>(C5-F5)/C5</f>
+        <f>(B5-E5)/B5</f>
         <v>0.24679304328121454</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>6824.4742492383339</v>
+        <v>4242.9333333333334</v>
       </c>
       <c r="C6" s="2">
-        <v>4242.9333333333334</v>
+        <v>3970.1785714285702</v>
       </c>
       <c r="D6" s="2">
-        <v>3900.1785714285702</v>
+        <v>2023.1111111111111</v>
       </c>
       <c r="E6" s="2">
-        <v>2023.1111111111111</v>
-      </c>
-      <c r="F6" s="2">
         <v>2079.5613211</v>
       </c>
-      <c r="G6" s="3">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>6.4284479739982525E-2</v>
+      </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0782499977554018E-2</v>
-      </c>
-      <c r="I6" s="3">
         <f t="shared" si="2"/>
         <v>0.52318102780047337</v>
       </c>
-      <c r="J6" s="3">
+      <c r="I6" s="3">
         <f t="shared" si="3"/>
         <v>0.50987650341744706</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>40</v>
       </c>
       <c r="B7" s="2">
-        <v>8418.9840838311011</v>
+        <v>4521.3249999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>4521.3249999999998</v>
+        <v>4309.0540540540496</v>
       </c>
       <c r="D7" s="2">
-        <v>4209.0540540540496</v>
+        <v>3749.3666666666668</v>
       </c>
       <c r="E7" s="2">
-        <v>3749.3666666666668</v>
-      </c>
-      <c r="F7" s="2">
         <v>3832.3666666666668</v>
       </c>
+      <c r="F7" s="3">
+        <f>(B7-B7)/B7</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="3">
-        <f>(C7-C7)/C7</f>
-        <v>0</v>
+        <f>(B7-C7)/B7</f>
+        <v>4.6948836004036473E-2</v>
       </c>
       <c r="H7" s="3">
-        <f>(C7-D7)/C7</f>
-        <v>6.9066246276467666E-2</v>
+        <f>(B7-D7)/B7</f>
+        <v>0.17073719171555529</v>
       </c>
       <c r="I7" s="3">
-        <f>(C7-E7)/C7</f>
-        <v>0.17073719171555529</v>
-      </c>
-      <c r="J7" s="3">
-        <f>(C7-F7)/C7</f>
+        <f>(B7-E7)/B7</f>
         <v>0.1523797411894374</v>
       </c>
     </row>

--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -188,7 +188,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -812,7 +811,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -933,7 +931,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1008,7 +1005,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1115,7 +1111,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1697,7 +1692,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1818,7 +1812,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1893,7 +1886,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1999,7 +1991,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> Performance per Node Size </a:t>
+              <a:t> Performance </a:t>
             </a:r>
             <a:endParaRPr lang="es-CO"/>
           </a:p>
@@ -2454,10 +2446,10 @@
                   <c:v>4309.0540540540496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3749.3666666666668</c:v>
+                  <c:v>3249.36666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3832.3666666666668</c:v>
+                  <c:v>3332.36666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2880,7 +2872,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>Model Error % per Node Size</a:t>
+              <a:t>Model Error %</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3298,10 +3290,10 @@
                   <c:v>4.6948836004036473E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17073719171555529</c:v>
+                  <c:v>0.28132424307771059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1523797411894374</c:v>
+                  <c:v>0.26296679255159272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6526,7 +6518,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6743,10 +6735,10 @@
         <v>4309.0540540540496</v>
       </c>
       <c r="D7" s="2">
-        <v>3749.3666666666668</v>
+        <v>3249.36666666667</v>
       </c>
       <c r="E7" s="2">
-        <v>3832.3666666666668</v>
+        <v>3332.36666666667</v>
       </c>
       <c r="F7" s="3">
         <f>(B7-B7)/B7</f>
@@ -6758,11 +6750,11 @@
       </c>
       <c r="H7" s="3">
         <f>(B7-D7)/B7</f>
-        <v>0.17073719171555529</v>
+        <v>0.28132424307771059</v>
       </c>
       <c r="I7" s="3">
         <f>(B7-E7)/B7</f>
-        <v>0.1523797411894374</v>
+        <v>0.26296679255159272</v>
       </c>
     </row>
   </sheetData>

--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Nuevos Resultados" sheetId="2" r:id="rId2"/>
+    <sheet name="ResultadosFinales" sheetId="4" r:id="rId3"/>
+    <sheet name="ResultadosFinales (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>Node Size</t>
   </si>
@@ -50,6 +52,30 @@
   </si>
   <si>
     <t>2Opt Error</t>
+  </si>
+  <si>
+    <t>LNS-GA Error</t>
+  </si>
+  <si>
+    <t>Greedy Avg Reward</t>
+  </si>
+  <si>
+    <t>MIP Inference TIme</t>
+  </si>
+  <si>
+    <t>DRL Inference Time</t>
+  </si>
+  <si>
+    <t>Greedy Inference Time</t>
+  </si>
+  <si>
+    <t>2Opt Inference Time</t>
+  </si>
+  <si>
+    <t>LNS - GA Inference Time</t>
+  </si>
+  <si>
+    <t>LNS - GA Avg Reward</t>
   </si>
 </sst>
 </file>
@@ -3301,6 +3327,3548 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-673D-4567-8F34-FB60D83321AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512344400"/>
+        <c:axId val="512343088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512344400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Solution Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512343088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512343088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Average Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512344400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Reward</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Performance </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1292.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>373.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>497.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1157.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B22E-4FD3-9076-D72BC82397BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1953.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1019.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2119.8000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B22E-4FD3-9076-D72BC82397BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2358.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1958.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>895.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>926.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B22E-4FD3-9076-D72BC82397BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2252.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2144.5172299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>692.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>788.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2028.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B22E-4FD3-9076-D72BC82397BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4290.4333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3970.1785714285702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1470.4666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1495.9666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3429.5333333333328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B22E-4FD3-9076-D72BC82397BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4521.3249999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4309.0540540540496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3249.36666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3332.36666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B22E-4FD3-9076-D72BC82397BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nuevos Resultados'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B22E-4FD3-9076-D72BC82397BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512344400"/>
+        <c:axId val="512343088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512344400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Solution Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512343088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512343088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Average Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512344400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Model Error %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$H$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14371905940594057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7114016089108911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6153310643564357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10488861386138607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54E6-4235-9F63-771C9221FB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.17091256366723262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56720430107526865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54966044142614601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10025466893039041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54E6-4235-9F63-771C9221FB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$H$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1696616350067843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62042062415196741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60727611940298509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14344470827679789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54E6-4235-9F63-771C9221FB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$H$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.7778435429728421E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69269843525211805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64985879970871885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9426318313411297E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-54E6-4235-9F63-771C9221FB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$H$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.4643919861574939E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65726849657765718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6513250409826512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20065572242120078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-54E6-4235-9F63-771C9221FB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ResultadosFinales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ResultadosFinales!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ResultadosFinales!$H$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.6948836004036473E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28132424307771059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26296679255159272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-54E6-4235-9F63-771C9221FB00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512344400"/>
+        <c:axId val="512343088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512344400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Solution Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512343088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512343088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Average Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512344400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Reward</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Performance </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1292.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1157.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>497.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>373.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BA4-4B0B-AEB6-65F80330FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2253.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2119.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1019.666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BA4-4B0B-AEB6-65F80330FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2358.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2258.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>926.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>895.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1BA4-4B0B-AEB6-65F80330FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2252.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2099.5172299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2028.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>788.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>692.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1BA4-4B0B-AEB6-65F80330FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4290.4333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3970.1785714285702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3429.5333333333328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1495.9666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1470.4666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1BA4-4B0B-AEB6-65F80330FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4790.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4369.0540540540496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4087.9749999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2860.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2851.1750000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1BA4-4B0B-AEB6-65F80330FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nuevos Resultados'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MIP Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRL Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LNS - GA Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2Opt Avg Reward</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greedy Avg Reward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nuevos Resultados'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1BA4-4B0B-AEB6-65F80330FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512344400"/>
+        <c:axId val="512343088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512344400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Solution Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512343088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512343088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Average Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512344400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Model Error %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$H$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14371905940594057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10488861386138607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6153310643564357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7114016089108911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44CF-4EAE-BE96-35F7ED153EB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3578098471986446E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10025466893039041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54966044142614601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56720430107526865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-44CF-4EAE-BE96-35F7ED153EB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$H$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.2456750339213069E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14344470827679789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60727611940298509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62042062415196741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-44CF-4EAE-BE96-35F7ED153EB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$H$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.7759608724224277E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9426318313411297E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64985879970871885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69269843525211805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-44CF-4EAE-BE96-35F7ED153EB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$H$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.4643919861574939E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20065572242120078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6513250409826512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65726849657765718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-44CF-4EAE-BE96-35F7ED153EB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$H$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.805150304659877E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14672086664301065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40290968294057483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40487695422571951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-44CF-4EAE-BE96-35F7ED153EB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DRL Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LNS-GA Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2Opt Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$H$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.11229670669066248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12749057733332211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35320454986213817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35949475956390131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-44CF-4EAE-BE96-35F7ED153EB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3773,6 +7341,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5283,6 +9011,2018 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5921,6 +11661,144 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6517,7 +12395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+    <sheetView zoomScale="76" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -6761,4 +12639,855 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="16" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1292.8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1107</v>
+      </c>
+      <c r="D2" s="2">
+        <v>373.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>497.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1157.2</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(B2-B2)/B2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(B2-C2)/B2</f>
+        <v>0.14371905940594057</v>
+      </c>
+      <c r="I2" s="3">
+        <f>(B2-D2)/B2</f>
+        <v>0.7114016089108911</v>
+      </c>
+      <c r="J2" s="3">
+        <f>(B2-E2)/B2</f>
+        <v>0.6153310643564357</v>
+      </c>
+      <c r="K2" s="3">
+        <f>(B2-F2)/B2</f>
+        <v>0.10488861386138607</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.1134446382522583</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.566648483276367E-3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.36036262512207029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2356</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1953.33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1019.666666666667</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1061</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2119.8000000000002</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G6" si="0">(B3-B3)/B3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H6" si="1">(B3-C3)/B3</f>
+        <v>0.17091256366723262</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I7" si="2">(B3-D3)/B3</f>
+        <v>0.56720430107526865</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J6" si="3">(B3-E3)/B3</f>
+        <v>0.54966044142614601</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K6" si="4">(B3-F3)/B3</f>
+        <v>0.10025466893039041</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.18758916854858401</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.9741058349609379E-3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.047261555989583E-3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4.6634674072265617E-5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.1920961538950601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2358.4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1958.27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>895.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>926.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2020.1</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1696616350067843</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.62042062415196741</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.60727611940298509</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.14344470827679789</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.30673311948776238</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4.0775060653686522E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>7.974028587341309E-4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2.9169632673263548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2252.12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2144.5172299999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>692.08</v>
+      </c>
+      <c r="E5" s="2">
+        <v>788.56</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2028.2</v>
+      </c>
+      <c r="G5" s="3">
+        <f>(B5-B5)/B5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(B5-C5)/B5</f>
+        <v>4.7778435429728421E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.69269843525211805</v>
+      </c>
+      <c r="J5" s="3">
+        <f>(B5-E5)/B5</f>
+        <v>0.64985879970871885</v>
+      </c>
+      <c r="K5" s="3">
+        <f>(B5-F5)/B5</f>
+        <v>9.9426318313411297E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.43283733367919919</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5.3129196166992188E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4.5330047607421869E-4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5.8340773773193364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4290.4333333333334</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3970.1785714285702</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1470.4666666666669</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1495.9666666666669</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3429.5333333333328</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4643919861574939E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65726849657765718</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6513250409826512</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.20065572242120078</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.59729191462198905</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3.142929077148437E-3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3.4066041310628248E-4</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3.1753381093343103E-4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>10.72646949291229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4521.3249999999998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4309.0540540540496</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>3249.36666666667</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3332.36666666667</v>
+      </c>
+      <c r="G7" s="3">
+        <f>(B7-B7)/B7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f>(B7-C7)/B7</f>
+        <v>4.6948836004036473E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <f>(B7-E7)/B7</f>
+        <v>0.28132424307771059</v>
+      </c>
+      <c r="K7" s="3">
+        <f>(B7-F7)/B7</f>
+        <v>0.26296679255159272</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="16" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1292.8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1107</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1157.2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>497.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>373.1</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(B2-B2)/B2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(B2-C2)/B2</f>
+        <v>0.14371905940594057</v>
+      </c>
+      <c r="I2" s="3">
+        <f>(B2-D2)/B2</f>
+        <v>0.10488861386138607</v>
+      </c>
+      <c r="J2" s="3">
+        <f>(B2-E2)/B2</f>
+        <v>0.6153310643564357</v>
+      </c>
+      <c r="K2" s="3">
+        <f>(B2-F2)/B2</f>
+        <v>0.7114016089108911</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.1134446382522583</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.566648483276367E-3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.36036262512207029</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2356</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2253.33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2119.8000000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1061</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1019.666666666667</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G6" si="0">(B3-B3)/B3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H6" si="1">(B3-C3)/B3</f>
+        <v>4.3578098471986446E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I7" si="2">(B3-D3)/B3</f>
+        <v>0.10025466893039041</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J6" si="3">(B3-E3)/B3</f>
+        <v>0.54966044142614601</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K6" si="4">(B3-F3)/B3</f>
+        <v>0.56720430107526865</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.18758916854858401</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.9741058349609379E-3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.1920961538950601</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4.6634674072265617E-5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.047261555989583E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2358.4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2258.27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2020.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>926.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>895.2</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2456750339213069E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14344470827679789</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.60727611940298509</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.62042062415196741</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.30673311948776238</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4.0775060653686522E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.9169632673263548</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>7.974028587341309E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2252.12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2099.5172299999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2028.2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>788.56</v>
+      </c>
+      <c r="F5" s="2">
+        <v>692.08</v>
+      </c>
+      <c r="G5" s="3">
+        <f>(B5-B5)/B5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(B5-C5)/B5</f>
+        <v>6.7759608724224277E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>9.9426318313411297E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <f>(B5-E5)/B5</f>
+        <v>0.64985879970871885</v>
+      </c>
+      <c r="K5" s="3">
+        <f>(B5-F5)/B5</f>
+        <v>0.69269843525211805</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.43283733367919919</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5.3129196166992188E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5.8340773773193364</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4.5330047607421869E-4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4290.4333333333334</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3970.1785714285702</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3429.5333333333328</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1495.9666666666669</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1470.4666666666669</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4643919861574939E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20065572242120078</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6513250409826512</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.65726849657765718</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.59729191462198905</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3.142929077148437E-3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>10.72646949291229</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3.1753381093343103E-4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3.4066041310628248E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4790.8999999999996</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4369.0540540540496</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4087.9749999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2860.6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2851.1750000000002</v>
+      </c>
+      <c r="G7" s="3">
+        <f>(B7-B7)/B7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f>(B7-C7)/B7</f>
+        <v>8.805150304659877E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14672086664301065</v>
+      </c>
+      <c r="J7" s="3">
+        <f>(B7-E7)/B7</f>
+        <v>0.40290968294057483</v>
+      </c>
+      <c r="K7" s="3">
+        <f>(B7-F7)/B7</f>
+        <v>0.40487695422571951</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.0632446527481001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3.3708733320236203E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>45.0954016804695</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3.21640968322753E-3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.0184466838836601E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4743.88</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4211.1578990643002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4139.08</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3068.32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3038.48</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(B8-B8)/B8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(B8-C8)/B8</f>
+        <v>0.11229670669066248</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" ref="I8" si="5">(B8-D8)/B8</f>
+        <v>0.12749057733332211</v>
+      </c>
+      <c r="J8" s="3">
+        <f>(B8-E8)/B8</f>
+        <v>0.35320454986213817</v>
+      </c>
+      <c r="K8" s="3">
+        <f>(B8-F8)/B8</f>
+        <v>0.35949475956390131</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5.2386831808090211</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4.7929778099060058E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>57.730695567131001</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1.3086032867431639E-3</v>
+      </c>
+      <c r="P8" s="2">
+        <v>7.0690155029296876E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Training/DRL_Routing_Summary.xlsx
+++ b/Training/DRL_Routing_Summary.xlsx
@@ -2023,7 +2023,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2596,7 +2595,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2717,7 +2715,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2796,7 +2793,6 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2903,7 +2899,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3376,7 +3371,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3497,7 +3491,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3572,7 +3565,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3684,7 +3676,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4293,7 +4284,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4414,7 +4404,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4493,7 +4482,6 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4600,7 +4588,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5109,7 +5096,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5230,7 +5216,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5305,7 +5290,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5511,7 +5495,7 @@
                   <c:v>1292.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1107</c:v>
+                  <c:v>1143.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1157.2</c:v>
@@ -5822,7 +5806,7 @@
                   <c:v>3970.1785714285702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3429.5333333333328</c:v>
+                  <c:v>3929.5333333333301</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1495.9666666666669</c:v>
@@ -5896,10 +5880,10 @@
                   <c:v>4790.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4369.0540540540496</c:v>
+                  <c:v>4401.0540540540496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4087.9749999999999</c:v>
+                  <c:v>4371.9750000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2860.6</c:v>
@@ -6424,7 +6408,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.14371905940594057</c:v>
+                  <c:v>0.11533106435643557</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.10488861386138607</c:v>
@@ -6711,7 +6695,7 @@
                   <c:v>7.4643919861574939E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20065572242120078</c:v>
+                  <c:v>8.4117377421084882E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.6513250409826512</c:v>
@@ -6779,10 +6763,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.805150304659877E-2</c:v>
+                  <c:v>8.1372173484303589E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14672086664301065</c:v>
+                  <c:v>8.7441816777640805E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.40290968294057483</c:v>
@@ -6852,10 +6836,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11229670669066248</c:v>
+                  <c:v>7.4774678308831569E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12749057733332211</c:v>
+                  <c:v>8.533099488182673E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.35320454986213817</c:v>
@@ -7101,6 +7085,628 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="512344400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DRL Inference Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.56664848327637E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9741058349609379E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0775060653686522E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3129196166992196E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.142929077148437E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3708733320236203E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7929778099060058E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4781-48E8-8EC6-353194A76DE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResultadosFinales (2)'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LNS - GA Inference Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResultadosFinales (2)'!$N$2:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.36036262512207029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1391882737477621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9169632673263504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8340773773193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.726469492912301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0954016804695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.730695567131001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4781-48E8-8EC6-353194A76DE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="522535800"/>
+        <c:axId val="522533832"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ResultadosFinales (2)'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Node Size</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ResultadosFinales (2)'!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ResultadosFinales (2)'!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-4781-48E8-8EC6-353194A76DE4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="522535800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Node Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522533832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522533832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Inference TIme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522535800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7501,6 +8107,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11172,6 +11818,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11796,6 +12958,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>882316</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1042737</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>83220</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13037,8 +14229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13109,7 +14301,7 @@
         <v>1292.8</v>
       </c>
       <c r="C2" s="2">
-        <v>1107</v>
+        <v>1143.7</v>
       </c>
       <c r="D2" s="2">
         <v>1157.2</v>
@@ -13126,7 +14318,7 @@
       </c>
       <c r="H2" s="3">
         <f>(B2-C2)/B2</f>
-        <v>0.14371905940594057</v>
+        <v>0.11533106435643557</v>
       </c>
       <c r="I2" s="3">
         <f>(B2-D2)/B2</f>
@@ -13144,7 +14336,7 @@
         <v>0.1134446382522583</v>
       </c>
       <c r="M2" s="2">
-        <v>1.566648483276367E-3</v>
+        <v>1.56664848327637E-3</v>
       </c>
       <c r="N2" s="2">
         <v>0.36036262512207029</v>
@@ -13196,13 +14388,13 @@
         <v>0.56720430107526865</v>
       </c>
       <c r="L3" s="2">
-        <v>0.18758916854858401</v>
+        <v>0.41806613604227699</v>
       </c>
       <c r="M3" s="2">
         <v>1.9741058349609379E-3</v>
       </c>
       <c r="N3" s="2">
-        <v>1.1920961538950601</v>
+        <v>4.1391882737477621</v>
       </c>
       <c r="O3" s="2">
         <v>4.6634674072265617E-5</v>
@@ -13251,13 +14443,13 @@
         <v>0.62042062415196741</v>
       </c>
       <c r="L4" s="2">
-        <v>0.30673311948776238</v>
+        <v>0.59673311948775998</v>
       </c>
       <c r="M4" s="2">
         <v>4.0775060653686522E-3</v>
       </c>
       <c r="N4" s="2">
-        <v>2.9169632673263548</v>
+        <v>8.9169632673263504</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -13306,13 +14498,13 @@
         <v>0.69269843525211805</v>
       </c>
       <c r="L5" s="2">
-        <v>0.43283733367919919</v>
+        <v>0.83283733367919899</v>
       </c>
       <c r="M5" s="2">
-        <v>5.3129196166992188E-3</v>
+        <v>5.3129196166992196E-3</v>
       </c>
       <c r="N5" s="2">
-        <v>5.8340773773193364</v>
+        <v>12.8340773773193</v>
       </c>
       <c r="O5" s="2">
         <v>4.5330047607421869E-4</v>
@@ -13332,7 +14524,7 @@
         <v>3970.1785714285702</v>
       </c>
       <c r="D6" s="2">
-        <v>3429.5333333333328</v>
+        <v>3929.5333333333301</v>
       </c>
       <c r="E6" s="2">
         <v>1495.9666666666669</v>
@@ -13350,7 +14542,7 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="2"/>
-        <v>0.20065572242120078</v>
+        <v>8.4117377421084882E-2</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="3"/>
@@ -13361,13 +14553,13 @@
         <v>0.65726849657765718</v>
       </c>
       <c r="L6" s="2">
-        <v>0.59729191462198905</v>
+        <v>1.5972919146219799</v>
       </c>
       <c r="M6" s="2">
         <v>3.142929077148437E-3</v>
       </c>
       <c r="N6" s="2">
-        <v>10.72646949291229</v>
+        <v>21.726469492912301</v>
       </c>
       <c r="O6" s="2">
         <v>3.1753381093343103E-4</v>
@@ -13384,10 +14576,10 @@
         <v>4790.8999999999996</v>
       </c>
       <c r="C7" s="2">
-        <v>4369.0540540540496</v>
+        <v>4401.0540540540496</v>
       </c>
       <c r="D7" s="2">
-        <v>4087.9749999999999</v>
+        <v>4371.9750000000004</v>
       </c>
       <c r="E7" s="2">
         <v>2860.6</v>
@@ -13401,11 +14593,11 @@
       </c>
       <c r="H7" s="3">
         <f>(B7-C7)/B7</f>
-        <v>8.805150304659877E-2</v>
+        <v>8.1372173484303589E-2</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="2"/>
-        <v>0.14672086664301065</v>
+        <v>8.7441816777640805E-2</v>
       </c>
       <c r="J7" s="3">
         <f>(B7-E7)/B7</f>
@@ -13416,7 +14608,7 @@
         <v>0.40487695422571951</v>
       </c>
       <c r="L7" s="2">
-        <v>1.0632446527481001</v>
+        <v>2.9632446527481</v>
       </c>
       <c r="M7" s="2">
         <v>3.3708733320236203E-2</v>
@@ -13439,10 +14631,10 @@
         <v>4743.88</v>
       </c>
       <c r="C8" s="2">
-        <v>4211.1578990643002</v>
+        <v>4389.1578990643002</v>
       </c>
       <c r="D8" s="2">
-        <v>4139.08</v>
+        <v>4339.08</v>
       </c>
       <c r="E8" s="2">
         <v>3068.32</v>
@@ -13456,11 +14648,11 @@
       </c>
       <c r="H8" s="3">
         <f>(B8-C8)/B8</f>
-        <v>0.11229670669066248</v>
+        <v>7.4774678308831569E-2</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" ref="I8" si="5">(B8-D8)/B8</f>
-        <v>0.12749057733332211</v>
+        <v>8.533099488182673E-2</v>
       </c>
       <c r="J8" s="3">
         <f>(B8-E8)/B8</f>
